--- a/docs/tree/tree_test.xlsx
+++ b/docs/tree/tree_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\northboat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Repo\cur\Ark-Searchable-Encryption\docs\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892FEF2-6EC9-4A2D-9F11-B30A1B9E76E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4A5E8-5DE3-4605-ADD0-620618AE2704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,61 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>100k</t>
+    <t>维度\数据量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>150k</t>
+    <t>2 (4叉树)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200k</t>
+    <t>3 (8叉树)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>250k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据\数据量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存 (KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维索引构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀长度 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀长度 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四维索引构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六维索引构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀长度 150</t>
+    <t>4 (16叉树)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,10 +83,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +374,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -425,125 +388,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>20000</v>
+      </c>
+      <c r="E2">
+        <v>50000</v>
+      </c>
+      <c r="F2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>36437</v>
-      </c>
-      <c r="C5" s="1">
-        <v>56696</v>
-      </c>
-      <c r="D5" s="1">
-        <v>78837</v>
-      </c>
-      <c r="E5" s="1">
-        <v>88795</v>
-      </c>
-      <c r="F5" s="1">
-        <v>121683</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>320</v>
-      </c>
-      <c r="C6" s="1">
-        <v>480</v>
-      </c>
-      <c r="D6" s="1">
-        <v>640</v>
-      </c>
-      <c r="E6" s="1">
-        <v>800</v>
-      </c>
-      <c r="F6" s="1">
-        <v>960</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>87301</v>
-      </c>
-      <c r="C12" s="1">
-        <v>139595</v>
-      </c>
-      <c r="D12" s="1">
-        <v>207797</v>
-      </c>
-      <c r="E12" s="1">
-        <v>257211</v>
-      </c>
-      <c r="F12" s="1">
-        <v>330377</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -551,47 +464,23 @@
       <c r="F13" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>

--- a/docs/tree/tree_test.xlsx
+++ b/docs/tree/tree_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Repo\cur\Ark-Searchable-Encryption\docs\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4A5E8-5DE3-4605-ADD0-620618AE2704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EBB28-32F3-447F-992E-266009CFA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>维度\数据量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>4 (16叉树)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位 ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询（随机查找100个已知节点的平均时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引建立（10次构建取平均）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
@@ -387,83 +399,218 @@
     <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="1">
         <v>20000</v>
       </c>
-      <c r="E2">
-        <v>50000</v>
-      </c>
-      <c r="F2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1">
+        <v>389</v>
+      </c>
+      <c r="D3" s="1">
+        <v>568</v>
+      </c>
+      <c r="E3" s="1">
+        <v>811</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1027</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1">
+        <v>450</v>
+      </c>
+      <c r="D4" s="1">
+        <v>654</v>
+      </c>
+      <c r="E4" s="1">
+        <v>885</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1092</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1">
+        <v>506</v>
+      </c>
+      <c r="D5" s="1">
+        <v>825</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1015</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1350</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>566</v>
+      </c>
+      <c r="C9" s="1">
+        <v>579</v>
+      </c>
+      <c r="D9" s="1">
+        <v>551</v>
+      </c>
+      <c r="E9" s="1">
+        <v>558</v>
+      </c>
+      <c r="F9" s="1">
+        <v>539</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>544</v>
+      </c>
+      <c r="C10" s="1">
+        <v>539</v>
+      </c>
+      <c r="D10" s="1">
+        <v>561</v>
+      </c>
+      <c r="E10" s="1">
+        <v>546</v>
+      </c>
+      <c r="F10" s="1">
+        <v>551</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>544</v>
+      </c>
+      <c r="C11" s="1">
+        <v>546</v>
+      </c>
+      <c r="D11" s="1">
+        <v>542</v>
+      </c>
+      <c r="E11" s="1">
+        <v>549</v>
+      </c>
+      <c r="F11" s="1">
+        <v>573</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">

--- a/docs/tree/tree_test.xlsx
+++ b/docs/tree/tree_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Repo\cur\Ark-Searchable-Encryption\docs\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Repo\Ark-Encryption-Platform\docs\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EBB28-32F3-447F-992E-266009CFA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E9477-C52A-4E5F-8F29-3F519C481B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>维度\数据量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>索引建立（10次构建取平均）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应存储开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位 bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,28 +391,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +434,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -448,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -469,7 +478,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,7 +499,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -498,141 +507,193 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B16" s="1">
         <v>5000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C16" s="1">
         <v>10000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D16" s="1">
         <v>15000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E16" s="1">
         <v>20000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F16" s="1">
         <v>25000</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B17" s="1">
         <v>566</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C17" s="1">
         <v>579</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D17" s="1">
         <v>551</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E17" s="1">
         <v>558</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F17" s="1">
         <v>539</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B18" s="1">
         <v>544</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C18" s="1">
         <v>539</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D18" s="1">
         <v>561</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E18" s="1">
         <v>546</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F18" s="1">
         <v>551</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B19" s="1">
         <v>544</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C19" s="1">
         <v>546</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D19" s="1">
         <v>542</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E19" s="1">
         <v>549</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F19" s="1">
         <v>573</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
